--- a/Yun75_BoM.xlsx
+++ b/Yun75_BoM.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\YunTKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F8E79-E9BC-49CC-81CB-556F949DDF64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3352EFAC-D382-4905-A2B8-5460793F91AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30290" yWindow="2060" windowWidth="15530" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Report" sheetId="1" r:id="rId1"/>
     <sheet name="Project Information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="336">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -364,9 +363,6 @@
     <t>D182, D183, D184</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 1A MINI2</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -721,24 +717,15 @@
     <t>SOT-23-5</t>
   </si>
   <si>
-    <t>PMIC-MCP73811T-120I/OT(SOT23-5)</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
-    <t>Sot23 Simple Low-Cost Integrated Li-Ion/Li-Poly Charge Mgnt Controller, 4.2v Vre</t>
-  </si>
-  <si>
     <t>#41</t>
   </si>
   <si>
     <t>SOT323</t>
   </si>
   <si>
-    <t>BC857BW</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -757,9 +744,6 @@
     <t>#43</t>
   </si>
   <si>
-    <t>SiP32431_TDFN4</t>
-  </si>
-  <si>
     <t>SiP32431</t>
   </si>
   <si>
@@ -898,15 +882,6 @@
     <t>Output Generator Description</t>
   </si>
   <si>
-    <t>Partnubmer: SIP32431DNP3-T1GE4</t>
-  </si>
-  <si>
-    <t>Substitute part number: SS14FL</t>
-  </si>
-  <si>
-    <t>Substitute part number: MCP73812T-420I/OT</t>
-  </si>
-  <si>
     <t>R12, R13, R19</t>
   </si>
   <si>
@@ -976,9 +951,6 @@
     <t>Nexperia</t>
   </si>
   <si>
-    <t xml:space="preserve">Substitute part number: BC847BW </t>
-  </si>
-  <si>
     <t>TI</t>
   </si>
   <si>
@@ -1015,9 +987,6 @@
     <t>VQFN44</t>
   </si>
   <si>
-    <t>SIP32431DNP3-T1GE4CT-ND</t>
-  </si>
-  <si>
     <t>4-TDFN</t>
   </si>
   <si>
@@ -1025,6 +994,48 @@
   </si>
   <si>
     <t>4-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>SS14FL</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 1A SOD123F</t>
+  </si>
+  <si>
+    <t>MCP73812T-420I/OT</t>
+  </si>
+  <si>
+    <t>IC LI-ION/LI-POLY CTRLR SOT23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC847BW </t>
+  </si>
+  <si>
+    <t>SIP32431DNP3-T1GE4</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>RN42</t>
+  </si>
+  <si>
+    <t>RN42 Module</t>
+  </si>
+  <si>
+    <t>RN42-LAND</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>RN42HID-I/RM</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RF TXRX MOD BLUETOOTH TRACE ANT</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1920,6 +1931,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,10 +2225,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2324,11 +2350,11 @@
       </c>
       <c r="C8" s="41">
         <f ca="1">TODAY()</f>
-        <v>43692</v>
+        <v>43700</v>
       </c>
       <c r="D8" s="42">
         <f ca="1">NOW()</f>
-        <v>43692.841096990742</v>
+        <v>43700.881464699072</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -2379,13 +2405,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>17</v>
@@ -2423,10 +2449,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H12" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>27</v>
@@ -2462,10 +2488,10 @@
         <v>32</v>
       </c>
       <c r="G13" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>34</v>
@@ -2501,10 +2527,10 @@
         <v>39</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>41</v>
@@ -2540,10 +2566,10 @@
         <v>64</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H15" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I15" s="50" t="s">
         <v>66</v>
@@ -2579,10 +2605,10 @@
         <v>49</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H16" s="52" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I16" s="50" t="s">
         <v>51</v>
@@ -2618,10 +2644,10 @@
         <v>54</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H17" s="52" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I17" s="50" t="s">
         <v>56</v>
@@ -2657,10 +2683,10 @@
         <v>59</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H18" s="52" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I18" s="50" t="s">
         <v>61</v>
@@ -2696,10 +2722,10 @@
         <v>64</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I19" s="50" t="s">
         <v>66</v>
@@ -2735,10 +2761,10 @@
         <v>70</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H20" s="52" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I20" s="50" t="s">
         <v>72</v>
@@ -2774,10 +2800,10 @@
         <v>75</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>77</v>
@@ -2813,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>79</v>
@@ -2852,10 +2878,10 @@
         <v>87</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>89</v>
@@ -2891,10 +2917,10 @@
         <v>93</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H24" s="52" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I24" s="50" t="s">
         <v>95</v>
@@ -2930,10 +2956,10 @@
         <v>99</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H25" s="52" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="I25" s="50" t="s">
         <v>101</v>
@@ -2969,10 +2995,10 @@
         <v>104</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I26" s="50" t="s">
         <v>106</v>
@@ -3005,57 +3031,55 @@
         <v>110</v>
       </c>
       <c r="F27" s="58" t="s">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H27" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="57" t="s">
         <v>323</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>111</v>
       </c>
       <c r="J27" s="60">
         <v>3</v>
       </c>
       <c r="K27" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="110" t="s">
-        <v>290</v>
-      </c>
+      <c r="M27" s="110"/>
     </row>
     <row r="28" spans="1:13" ht="13">
       <c r="A28" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="C28" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="D28" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="55" t="s">
+      <c r="F28" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" s="50" t="s">
         <v>117</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="I28" s="50" t="s">
-        <v>118</v>
       </c>
       <c r="J28" s="53">
         <v>1</v>
@@ -3070,29 +3094,29 @@
     </row>
     <row r="29" spans="1:13" ht="13">
       <c r="A29" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="D29" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>122</v>
-      </c>
       <c r="F29" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="53">
         <v>1</v>
@@ -3107,29 +3131,29 @@
     </row>
     <row r="30" spans="1:13" ht="13">
       <c r="A30" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="D30" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>127</v>
-      </c>
       <c r="F30" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H30" s="52"/>
       <c r="I30" s="63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" s="53">
         <v>1</v>
@@ -3144,31 +3168,31 @@
     </row>
     <row r="31" spans="1:13" ht="13">
       <c r="A31" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="D31" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="52" t="s">
+      <c r="F31" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="I31" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>133</v>
       </c>
       <c r="J31" s="53">
         <v>1</v>
@@ -3183,31 +3207,31 @@
     </row>
     <row r="32" spans="1:13" ht="13">
       <c r="A32" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="D32" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="E32" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="F32" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="J32" s="53">
         <v>1</v>
@@ -3222,31 +3246,31 @@
     </row>
     <row r="33" spans="1:13" ht="13">
       <c r="A33" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="D33" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="E33" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="F33" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I33" s="50" t="s">
         <v>144</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="I33" s="50" t="s">
-        <v>145</v>
       </c>
       <c r="J33" s="53">
         <v>2</v>
@@ -3261,31 +3285,31 @@
     </row>
     <row r="34" spans="1:13" ht="13">
       <c r="A34" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="51" t="s">
+      <c r="D34" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="E34" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="F34" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I34" s="50" t="s">
         <v>149</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>150</v>
       </c>
       <c r="J34" s="53">
         <v>2</v>
@@ -3300,31 +3324,31 @@
     </row>
     <row r="35" spans="1:13" ht="13">
       <c r="A35" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="D35" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="E35" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="F35" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I35" s="50" t="s">
         <v>155</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>156</v>
       </c>
       <c r="J35" s="53">
         <v>2</v>
@@ -3339,37 +3363,37 @@
     </row>
     <row r="36" spans="1:13" ht="13">
       <c r="A36" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="51" t="s">
+      <c r="D36" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="E36" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I36" s="50" t="s">
         <v>159</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>160</v>
       </c>
       <c r="J36" s="53">
         <v>4</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36" s="90" t="s">
         <v>42</v>
@@ -3378,37 +3402,37 @@
     </row>
     <row r="37" spans="1:13" ht="13">
       <c r="A37" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="51" t="s">
+      <c r="D37" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="E37" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="F37" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I37" s="50" t="s">
         <v>165</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I37" s="50" t="s">
-        <v>166</v>
       </c>
       <c r="J37" s="53">
         <v>4</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L37" s="90" t="s">
         <v>42</v>
@@ -3417,31 +3441,31 @@
     </row>
     <row r="38" spans="1:13" ht="13">
       <c r="A38" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="51" t="s">
+      <c r="D38" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="E38" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="F38" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" s="50" t="s">
         <v>170</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I38" s="50" t="s">
-        <v>171</v>
       </c>
       <c r="J38" s="53">
         <v>2</v>
@@ -3456,37 +3480,37 @@
     </row>
     <row r="39" spans="1:13" ht="13">
       <c r="A39" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="51" t="s">
+      <c r="D39" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="E39" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="F39" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" s="50" t="s">
         <v>175</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I39" s="50" t="s">
-        <v>176</v>
       </c>
       <c r="J39" s="53">
         <v>3</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="90" t="s">
         <v>42</v>
@@ -3495,31 +3519,31 @@
     </row>
     <row r="40" spans="1:13" ht="13">
       <c r="A40" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="51" t="s">
+      <c r="D40" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="E40" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="F40" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="50" t="s">
         <v>180</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I40" s="50" t="s">
-        <v>181</v>
       </c>
       <c r="J40" s="53">
         <v>1</v>
@@ -3534,31 +3558,31 @@
     </row>
     <row r="41" spans="1:13" ht="13">
       <c r="A41" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="51" t="s">
+      <c r="F41" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>169</v>
-      </c>
       <c r="G41" s="52" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J41" s="53">
         <v>1</v>
@@ -3573,31 +3597,31 @@
     </row>
     <row r="42" spans="1:13" ht="13">
       <c r="A42" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="51" t="s">
+      <c r="D42" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="E42" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="F42" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H42" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I42" s="50" t="s">
         <v>187</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>188</v>
       </c>
       <c r="J42" s="53">
         <v>1</v>
@@ -3612,31 +3636,31 @@
     </row>
     <row r="43" spans="1:13" ht="13">
       <c r="A43" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="51" t="s">
+      <c r="D43" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="E43" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="F43" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I43" s="50" t="s">
         <v>192</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I43" s="50" t="s">
-        <v>193</v>
       </c>
       <c r="J43" s="53">
         <v>1</v>
@@ -3651,31 +3675,31 @@
     </row>
     <row r="44" spans="1:13" ht="13">
       <c r="A44" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="B44" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="51" t="s">
+      <c r="D44" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="E44" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="F44" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H44" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I44" s="50" t="s">
         <v>197</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I44" s="50" t="s">
-        <v>198</v>
       </c>
       <c r="J44" s="53">
         <v>1</v>
@@ -3690,31 +3714,31 @@
     </row>
     <row r="45" spans="1:13" ht="13">
       <c r="A45" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="51" t="s">
+      <c r="D45" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="E45" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="F45" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I45" s="50" t="s">
         <v>202</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I45" s="50" t="s">
-        <v>203</v>
       </c>
       <c r="J45" s="53">
         <v>1</v>
@@ -3729,29 +3753,29 @@
     </row>
     <row r="46" spans="1:13" ht="13">
       <c r="A46" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="C46" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="D46" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>207</v>
-      </c>
       <c r="F46" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G46" s="52" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J46" s="53">
         <v>1</v>
@@ -3766,29 +3790,29 @@
     </row>
     <row r="47" spans="1:13" ht="13">
       <c r="A47" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="C47" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="D47" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>212</v>
-      </c>
       <c r="F47" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J47" s="53">
         <v>1</v>
@@ -3803,29 +3827,29 @@
     </row>
     <row r="48" spans="1:13" ht="13">
       <c r="A48" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="C48" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="51" t="s">
+      <c r="D48" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>217</v>
-      </c>
       <c r="F48" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G48" s="52" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J48" s="53">
         <v>1</v>
@@ -3840,29 +3864,29 @@
     </row>
     <row r="49" spans="1:13" ht="13">
       <c r="A49" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="C49" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="D49" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>222</v>
-      </c>
       <c r="F49" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J49" s="53">
         <v>1</v>
@@ -3877,31 +3901,31 @@
     </row>
     <row r="50" spans="1:13" ht="13">
       <c r="A50" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="C50" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="D50" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="52" t="s">
+      <c r="F50" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="I50" s="50" t="s">
         <v>226</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>227</v>
       </c>
       <c r="J50" s="53">
         <v>1</v>
@@ -3916,31 +3940,31 @@
     </row>
     <row r="51" spans="1:13" ht="14">
       <c r="A51" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="C51" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="C51" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>231</v>
-      </c>
       <c r="F51" s="58" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="G51" s="66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H51" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="J51" s="60">
         <v>1</v>
@@ -3949,39 +3973,37 @@
         <v>52</v>
       </c>
       <c r="L51" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="M51" s="111" t="s">
-        <v>291</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M51" s="111"/>
     </row>
     <row r="52" spans="1:13" ht="13">
       <c r="A52" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I52" s="50" t="s">
         <v>233</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="G52" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="I52" s="50" t="s">
-        <v>237</v>
       </c>
       <c r="J52" s="53">
         <v>1</v>
@@ -3992,37 +4014,35 @@
       <c r="L52" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="132" t="s">
-        <v>315</v>
-      </c>
+      <c r="M52" s="132"/>
     </row>
     <row r="53" spans="1:13" ht="13">
       <c r="A53" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H53" s="52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I53" s="50" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J53" s="53">
         <v>1</v>
@@ -4037,31 +4057,31 @@
     </row>
     <row r="54" spans="1:13" ht="13">
       <c r="A54" s="67" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G54" s="70" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I54" s="68" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J54" s="71">
         <v>1</v>
@@ -4072,37 +4092,35 @@
       <c r="L54" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="109" t="s">
-        <v>289</v>
-      </c>
+      <c r="M54" s="109"/>
     </row>
     <row r="55" spans="1:13" ht="13">
       <c r="A55" s="50" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G55" s="55" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H55" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I55" s="50" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J55" s="53">
         <v>1</v>
@@ -4117,31 +4135,31 @@
     </row>
     <row r="56" spans="1:13" ht="13">
       <c r="A56" s="50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G56" s="52" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H56" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I56" s="50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J56" s="53">
         <v>1</v>
@@ -4156,31 +4174,31 @@
     </row>
     <row r="57" spans="1:13" ht="13">
       <c r="A57" s="50" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G57" s="55" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I57" s="50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J57" s="53">
         <v>1</v>
@@ -4195,31 +4213,31 @@
     </row>
     <row r="58" spans="1:13" ht="13">
       <c r="A58" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="H58" t="s">
+        <v>321</v>
+      </c>
+      <c r="I58" s="113" t="s">
         <v>261</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="C58" s="114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" s="115" t="s">
-        <v>265</v>
-      </c>
-      <c r="F58" s="114" t="s">
-        <v>264</v>
-      </c>
-      <c r="G58" s="115" t="s">
-        <v>311</v>
-      </c>
-      <c r="H58" t="s">
-        <v>331</v>
-      </c>
-      <c r="I58" s="113" t="s">
-        <v>266</v>
       </c>
       <c r="J58" s="116">
         <v>1</v>
@@ -4232,93 +4250,117 @@
       </c>
       <c r="M58" s="119"/>
     </row>
-    <row r="59" spans="1:13" s="129" customFormat="1" ht="13">
-      <c r="A59" s="112" t="s">
-        <v>293</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="126" t="s">
+    <row r="59" spans="1:13" ht="13">
+      <c r="A59" s="134" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="135" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="114" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="136" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" t="s">
+        <v>333</v>
+      </c>
+      <c r="G59" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="H59" t="s">
+        <v>334</v>
+      </c>
+      <c r="I59" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="J59" s="116">
+        <v>1</v>
+      </c>
+      <c r="K59" s="137"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="138"/>
+    </row>
+    <row r="60" spans="1:13" s="129" customFormat="1" ht="13">
+      <c r="A60" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="125" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" s="126" t="s">
+        <v>288</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="G60" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="I59" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="J59" s="53">
+      <c r="H60" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J60" s="53">
         <v>1</v>
       </c>
-      <c r="K59" s="127"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="128"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="12"/>
-      <c r="B60" s="120"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="123"/>
-      <c r="J60" s="124">
-        <f>SUM(J12:J59)</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="13">
+      <c r="K60" s="127"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="128"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="12"/>
-      <c r="B61" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="77"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="124">
+        <f>SUM(J12:J60)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13">
+      <c r="A62" s="12"/>
+      <c r="B62" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="74"/>
+      <c r="D62" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="77"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="77"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="82"/>
     </row>
     <row r="64" spans="1:13">
       <c r="B64" s="83"/>
@@ -4343,48 +4385,59 @@
       <c r="J65" s="77"/>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="94"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="77"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="94"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="95"/>
       <c r="F67" s="99"/>
       <c r="G67" s="99"/>
       <c r="H67" s="99"/>
-      <c r="I67" s="100"/>
+      <c r="I67" s="97"/>
       <c r="J67" s="98"/>
     </row>
-    <row r="68" spans="2:10" ht="13">
-      <c r="B68" s="101"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="104"/>
+    <row r="68" spans="2:10">
+      <c r="B68" s="94"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="98"/>
     </row>
     <row r="69" spans="2:10" ht="13">
-      <c r="B69" s="105"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="107"/>
-      <c r="J69" s="108"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="104"/>
+    </row>
+    <row r="70" spans="2:10" ht="13">
+      <c r="B70" s="105"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.45999999999999996" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
@@ -4411,17 +4464,17 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -4431,7 +4484,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -4441,7 +4494,7 @@
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -4451,17 +4504,17 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -4471,17 +4524,17 @@
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -4491,7 +4544,7 @@
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
@@ -4501,17 +4554,17 @@
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
@@ -4521,27 +4574,27 @@
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>0</v>

--- a/Yun75_BoM.xlsx
+++ b/Yun75_BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\YunTKL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F8E79-E9BC-49CC-81CB-556F949DDF64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC4BD77-3657-43B1-86B0-9E27A7F65459}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30290" yWindow="2060" windowWidth="15530" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="18000" windowHeight="9457" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Report" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="336">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -1025,6 +1025,18 @@
   </si>
   <si>
     <t>4-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Solder Joints/Part</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1920,6 +1932,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2199,27 +2219,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="13"/>
-    <col min="2" max="2" width="20.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="14" customWidth="1"/>
-    <col min="5" max="8" width="35.81640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="36.453125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="13" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="13"/>
-    <col min="13" max="13" width="55.7265625" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="13"/>
+    <col min="1" max="1" width="9.19921875" style="13"/>
+    <col min="2" max="2" width="20.46484375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="31.265625" style="14" customWidth="1"/>
+    <col min="5" max="8" width="35.796875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="36.46484375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.06640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="10.53125" style="13" customWidth="1"/>
+    <col min="13" max="14" width="9.19921875" style="13"/>
+    <col min="15" max="15" width="55.73046875" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -2228,9 +2250,11 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" ht="37.5" customHeight="1">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="37.5" customHeight="1">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2243,9 +2267,11 @@
       <c r="G2" s="131"/>
       <c r="H2" s="131"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="23.25" customHeight="1">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" customHeight="1">
       <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
@@ -2258,9 +2284,11 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
@@ -2273,9 +2301,11 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.25" customHeight="1">
       <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
@@ -2288,9 +2318,11 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" ht="13">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.15">
       <c r="B6" s="34"/>
       <c r="C6" s="32"/>
       <c r="D6" s="35"/>
@@ -2299,9 +2331,11 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
@@ -2316,28 +2350,32 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="41">
         <f ca="1">TODAY()</f>
-        <v>43692</v>
+        <v>43694</v>
       </c>
       <c r="D8" s="42">
         <f ca="1">NOW()</f>
-        <v>43692.841096990742</v>
+        <v>43694.790478009258</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="38"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -2346,9 +2384,11 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="40"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2357,12 +2397,14 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="88"/>
+    </row>
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="45" t="s">
         <v>12</v>
       </c>
@@ -2390,20 +2432,26 @@
       <c r="I11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="M11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="89" t="s">
+      <c r="N11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="88" t="s">
+      <c r="O11" s="88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="16.5" customHeight="1">
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A12" s="50" t="s">
         <v>22</v>
       </c>
@@ -2431,18 +2479,24 @@
       <c r="I12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="50">
         <v>2</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="L12" s="53">
+        <v>2</v>
+      </c>
+      <c r="M12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="N12" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="91"/>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="O12" s="91"/>
+    </row>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="50" t="s">
         <v>30</v>
       </c>
@@ -2470,18 +2524,24 @@
       <c r="I13" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="50">
+        <v>2</v>
+      </c>
+      <c r="L13" s="53">
         <v>88</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="M13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="90" t="s">
+      <c r="N13" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="91"/>
-    </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" ht="16.5" customHeight="1">
+      <c r="O13" s="91"/>
+    </row>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="50" t="s">
         <v>36</v>
       </c>
@@ -2509,18 +2569,24 @@
       <c r="I14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="50">
         <v>2</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="L14" s="53">
+        <v>2</v>
+      </c>
+      <c r="M14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="90" t="s">
+      <c r="N14" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="91"/>
-    </row>
-    <row r="15" spans="1:13" ht="13">
+      <c r="O14" s="91"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.15">
       <c r="A15" s="50" t="s">
         <v>43</v>
       </c>
@@ -2548,18 +2614,24 @@
       <c r="I15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="50">
         <v>2</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="L15" s="53">
+        <v>2</v>
+      </c>
+      <c r="M15" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="90" t="s">
+      <c r="N15" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="91"/>
-    </row>
-    <row r="16" spans="1:13" customFormat="1" ht="13.75" customHeight="1">
+      <c r="O15" s="91"/>
+    </row>
+    <row r="16" spans="1:15" customFormat="1" ht="13.8" customHeight="1">
       <c r="A16" s="50" t="s">
         <v>46</v>
       </c>
@@ -2587,18 +2659,24 @@
       <c r="I16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="50">
+        <v>2</v>
+      </c>
+      <c r="L16" s="53">
         <v>1</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="M16" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="90" t="s">
+      <c r="N16" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="91"/>
-    </row>
-    <row r="17" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O16" s="91"/>
+    </row>
+    <row r="17" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A17" s="50" t="s">
         <v>53</v>
       </c>
@@ -2626,18 +2704,24 @@
       <c r="I17" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="50">
+        <v>2</v>
+      </c>
+      <c r="L17" s="53">
         <v>1</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="M17" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="90" t="s">
+      <c r="N17" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="91"/>
-    </row>
-    <row r="18" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O17" s="91"/>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A18" s="50" t="s">
         <v>57</v>
       </c>
@@ -2665,18 +2749,24 @@
       <c r="I18" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" s="50">
+        <v>2</v>
+      </c>
+      <c r="L18" s="53">
         <v>1</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="M18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="90" t="s">
+      <c r="N18" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="91"/>
-    </row>
-    <row r="19" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O18" s="91"/>
+    </row>
+    <row r="19" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A19" s="50" t="s">
         <v>62</v>
       </c>
@@ -2704,18 +2794,24 @@
       <c r="I19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="50">
+        <v>2</v>
+      </c>
+      <c r="L19" s="53">
         <v>1</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="M19" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L19" s="90" t="s">
+      <c r="N19" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="91"/>
-    </row>
-    <row r="20" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O19" s="91"/>
+    </row>
+    <row r="20" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A20" s="50" t="s">
         <v>67</v>
       </c>
@@ -2743,18 +2839,24 @@
       <c r="I20" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="50">
+        <v>2</v>
+      </c>
+      <c r="L20" s="53">
         <v>1</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="M20" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="90" t="s">
+      <c r="N20" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="91"/>
-    </row>
-    <row r="21" spans="1:13" customFormat="1" ht="9.75" customHeight="1">
+      <c r="O20" s="91"/>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" ht="9.75" customHeight="1">
       <c r="A21" s="50" t="s">
         <v>73</v>
       </c>
@@ -2782,18 +2884,24 @@
       <c r="I21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="50">
+        <v>2</v>
+      </c>
+      <c r="L21" s="53">
         <v>1</v>
       </c>
-      <c r="K21" s="54" t="s">
+      <c r="M21" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="90" t="s">
+      <c r="N21" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="91"/>
-    </row>
-    <row r="22" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O21" s="91"/>
+    </row>
+    <row r="22" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A22" s="50" t="s">
         <v>78</v>
       </c>
@@ -2821,18 +2929,24 @@
       <c r="I22" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" s="50">
+        <v>2</v>
+      </c>
+      <c r="L22" s="53">
         <v>84</v>
       </c>
-      <c r="K22" s="54" t="s">
+      <c r="M22" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="90" t="s">
+      <c r="N22" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="91"/>
-    </row>
-    <row r="23" spans="1:13" customFormat="1" ht="13" customHeight="1">
+      <c r="O22" s="91"/>
+    </row>
+    <row r="23" spans="1:15" customFormat="1" ht="13.05" customHeight="1">
       <c r="A23" s="50" t="s">
         <v>84</v>
       </c>
@@ -2860,18 +2974,24 @@
       <c r="I23" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="50">
+        <v>2</v>
+      </c>
+      <c r="L23" s="53">
         <v>1</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="M23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="90" t="s">
+      <c r="N23" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="91"/>
-    </row>
-    <row r="24" spans="1:13" ht="13">
+      <c r="O23" s="91"/>
+    </row>
+    <row r="24" spans="1:15" ht="13.15">
       <c r="A24" s="50" t="s">
         <v>90</v>
       </c>
@@ -2899,18 +3019,24 @@
       <c r="I24" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="50">
+        <v>2</v>
+      </c>
+      <c r="L24" s="53">
         <v>1</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="M24" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="90" t="s">
+      <c r="N24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="91"/>
-    </row>
-    <row r="25" spans="1:13" ht="13">
+      <c r="O24" s="91"/>
+    </row>
+    <row r="25" spans="1:15" ht="13.15">
       <c r="A25" s="50" t="s">
         <v>96</v>
       </c>
@@ -2938,18 +3064,24 @@
       <c r="I25" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="50">
+        <v>2</v>
+      </c>
+      <c r="L25" s="53">
         <v>1</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="M25" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="90" t="s">
+      <c r="N25" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="91"/>
-    </row>
-    <row r="26" spans="1:13" ht="13">
+      <c r="O25" s="91"/>
+    </row>
+    <row r="26" spans="1:15" ht="13.15">
       <c r="A26" s="50" t="s">
         <v>102</v>
       </c>
@@ -2977,18 +3109,24 @@
       <c r="I26" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="50">
+        <v>2</v>
+      </c>
+      <c r="L26" s="53">
         <v>1</v>
       </c>
-      <c r="K26" s="54" t="s">
+      <c r="M26" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="90" t="s">
+      <c r="N26" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="91"/>
-    </row>
-    <row r="27" spans="1:13" ht="14">
+      <c r="O26" s="91"/>
+    </row>
+    <row r="27" spans="1:15" ht="13.5">
       <c r="A27" s="56" t="s">
         <v>107</v>
       </c>
@@ -3016,20 +3154,26 @@
       <c r="I27" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="57">
+        <v>2</v>
+      </c>
+      <c r="L27" s="60">
         <v>3</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="M27" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="92" t="s">
+      <c r="N27" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="110" t="s">
+      <c r="O27" s="110" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="13">
+    <row r="28" spans="1:15" ht="13.15">
       <c r="A28" s="50" t="s">
         <v>114</v>
       </c>
@@ -3057,18 +3201,24 @@
       <c r="I28" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J28" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K28" s="50">
+        <v>2</v>
+      </c>
+      <c r="L28" s="53">
         <v>1</v>
       </c>
-      <c r="K28" s="54" t="s">
+      <c r="M28" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L28" s="90" t="s">
+      <c r="N28" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="91"/>
-    </row>
-    <row r="29" spans="1:13" ht="13">
+      <c r="O28" s="91"/>
+    </row>
+    <row r="29" spans="1:15" ht="13.15">
       <c r="A29" s="50" t="s">
         <v>119</v>
       </c>
@@ -3094,18 +3244,24 @@
       <c r="I29" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="50">
+        <v>24</v>
+      </c>
+      <c r="L29" s="53">
         <v>1</v>
       </c>
-      <c r="K29" s="54" t="s">
+      <c r="M29" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L29" s="90" t="s">
+      <c r="N29" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="91"/>
-    </row>
-    <row r="30" spans="1:13" ht="13">
+      <c r="O29" s="91"/>
+    </row>
+    <row r="30" spans="1:15" ht="13.15">
       <c r="A30" s="62" t="s">
         <v>124</v>
       </c>
@@ -3131,18 +3287,24 @@
       <c r="I30" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K30" s="63">
+        <v>2</v>
+      </c>
+      <c r="L30" s="53">
         <v>1</v>
       </c>
-      <c r="K30" s="54" t="s">
+      <c r="M30" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="90" t="s">
+      <c r="N30" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="91"/>
-    </row>
-    <row r="31" spans="1:13" ht="13">
+      <c r="O30" s="91"/>
+    </row>
+    <row r="31" spans="1:15" ht="13.15">
       <c r="A31" s="50" t="s">
         <v>129</v>
       </c>
@@ -3170,18 +3332,24 @@
       <c r="I31" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="53">
+      <c r="J31" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K31" s="50">
+        <v>2</v>
+      </c>
+      <c r="L31" s="53">
         <v>1</v>
       </c>
-      <c r="K31" s="54" t="s">
+      <c r="M31" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="90" t="s">
+      <c r="N31" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="91"/>
-    </row>
-    <row r="32" spans="1:13" ht="13">
+      <c r="O31" s="91"/>
+    </row>
+    <row r="32" spans="1:15" ht="13.15">
       <c r="A32" s="50" t="s">
         <v>134</v>
       </c>
@@ -3209,18 +3377,24 @@
       <c r="I32" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="53">
+      <c r="J32" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="50">
+        <v>2</v>
+      </c>
+      <c r="L32" s="53">
         <v>1</v>
       </c>
-      <c r="K32" s="54" t="s">
+      <c r="M32" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="90" t="s">
+      <c r="N32" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="91"/>
-    </row>
-    <row r="33" spans="1:13" ht="13">
+      <c r="O32" s="91"/>
+    </row>
+    <row r="33" spans="1:15" ht="13.15">
       <c r="A33" s="50" t="s">
         <v>140</v>
       </c>
@@ -3248,18 +3422,24 @@
       <c r="I33" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="50">
         <v>2</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="L33" s="53">
+        <v>2</v>
+      </c>
+      <c r="M33" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="90" t="s">
+      <c r="N33" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="91"/>
-    </row>
-    <row r="34" spans="1:13" ht="13">
+      <c r="O33" s="91"/>
+    </row>
+    <row r="34" spans="1:15" ht="13.15">
       <c r="A34" s="50" t="s">
         <v>146</v>
       </c>
@@ -3287,18 +3467,24 @@
       <c r="I34" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="50">
         <v>2</v>
       </c>
-      <c r="K34" s="54" t="s">
+      <c r="L34" s="53">
+        <v>2</v>
+      </c>
+      <c r="M34" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="90" t="s">
+      <c r="N34" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="91"/>
-    </row>
-    <row r="35" spans="1:13" ht="13">
+      <c r="O34" s="91"/>
+    </row>
+    <row r="35" spans="1:15" ht="13.15">
       <c r="A35" s="50" t="s">
         <v>151</v>
       </c>
@@ -3326,18 +3512,24 @@
       <c r="I35" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="J35" s="53">
+      <c r="J35" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" s="50">
         <v>2</v>
       </c>
-      <c r="K35" s="54" t="s">
+      <c r="L35" s="53">
+        <v>2</v>
+      </c>
+      <c r="M35" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="90" t="s">
+      <c r="N35" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="91"/>
-    </row>
-    <row r="36" spans="1:13" ht="13">
+      <c r="O35" s="91"/>
+    </row>
+    <row r="36" spans="1:15" ht="13.15">
       <c r="A36" s="50" t="s">
         <v>157</v>
       </c>
@@ -3365,18 +3557,24 @@
       <c r="I36" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="50">
+        <v>2</v>
+      </c>
+      <c r="L36" s="53">
         <v>4</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="M36" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="90" t="s">
+      <c r="N36" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="91"/>
-    </row>
-    <row r="37" spans="1:13" ht="13">
+      <c r="O36" s="91"/>
+    </row>
+    <row r="37" spans="1:15" ht="13.15">
       <c r="A37" s="50" t="s">
         <v>162</v>
       </c>
@@ -3404,18 +3602,24 @@
       <c r="I37" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="50">
+        <v>2</v>
+      </c>
+      <c r="L37" s="53">
         <v>4</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="M37" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="L37" s="90" t="s">
+      <c r="N37" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="91"/>
-    </row>
-    <row r="38" spans="1:13" ht="13">
+      <c r="O37" s="91"/>
+    </row>
+    <row r="38" spans="1:15" ht="13.15">
       <c r="A38" s="50" t="s">
         <v>167</v>
       </c>
@@ -3443,18 +3647,24 @@
       <c r="I38" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="J38" s="53">
+      <c r="J38" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="50">
         <v>2</v>
       </c>
-      <c r="K38" s="54" t="s">
+      <c r="L38" s="53">
+        <v>2</v>
+      </c>
+      <c r="M38" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="90" t="s">
+      <c r="N38" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="91"/>
-    </row>
-    <row r="39" spans="1:13" ht="13">
+      <c r="O38" s="91"/>
+    </row>
+    <row r="39" spans="1:15" ht="13.15">
       <c r="A39" s="50" t="s">
         <v>172</v>
       </c>
@@ -3482,18 +3692,24 @@
       <c r="I39" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" s="50">
+        <v>2</v>
+      </c>
+      <c r="L39" s="53">
         <v>3</v>
       </c>
-      <c r="K39" s="54" t="s">
+      <c r="M39" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="90" t="s">
+      <c r="N39" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="91"/>
-    </row>
-    <row r="40" spans="1:13" ht="13">
+      <c r="O39" s="91"/>
+    </row>
+    <row r="40" spans="1:15" ht="13.15">
       <c r="A40" s="50" t="s">
         <v>177</v>
       </c>
@@ -3521,18 +3737,24 @@
       <c r="I40" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" s="50">
+        <v>2</v>
+      </c>
+      <c r="L40" s="53">
         <v>1</v>
       </c>
-      <c r="K40" s="54" t="s">
+      <c r="M40" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L40" s="90" t="s">
+      <c r="N40" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="91"/>
-    </row>
-    <row r="41" spans="1:13" ht="13">
+      <c r="O40" s="91"/>
+    </row>
+    <row r="41" spans="1:15" ht="13.15">
       <c r="A41" s="50" t="s">
         <v>182</v>
       </c>
@@ -3560,18 +3782,24 @@
       <c r="I41" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" s="50">
+        <v>2</v>
+      </c>
+      <c r="L41" s="53">
         <v>1</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="M41" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L41" s="90" t="s">
+      <c r="N41" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="91"/>
-    </row>
-    <row r="42" spans="1:13" ht="13">
+      <c r="O41" s="91"/>
+    </row>
+    <row r="42" spans="1:15" ht="13.15">
       <c r="A42" s="50" t="s">
         <v>184</v>
       </c>
@@ -3599,18 +3827,24 @@
       <c r="I42" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="J42" s="53">
+      <c r="J42" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" s="50">
+        <v>2</v>
+      </c>
+      <c r="L42" s="53">
         <v>1</v>
       </c>
-      <c r="K42" s="54" t="s">
+      <c r="M42" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="N42" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="91"/>
-    </row>
-    <row r="43" spans="1:13" ht="13">
+      <c r="O42" s="91"/>
+    </row>
+    <row r="43" spans="1:15" ht="13.15">
       <c r="A43" s="50" t="s">
         <v>189</v>
       </c>
@@ -3638,18 +3872,24 @@
       <c r="I43" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="50">
+        <v>2</v>
+      </c>
+      <c r="L43" s="53">
         <v>1</v>
       </c>
-      <c r="K43" s="54" t="s">
+      <c r="M43" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L43" s="90" t="s">
+      <c r="N43" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="91"/>
-    </row>
-    <row r="44" spans="1:13" ht="13">
+      <c r="O43" s="91"/>
+    </row>
+    <row r="44" spans="1:15" ht="13.15">
       <c r="A44" s="50" t="s">
         <v>194</v>
       </c>
@@ -3677,18 +3917,24 @@
       <c r="I44" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" s="50">
+        <v>2</v>
+      </c>
+      <c r="L44" s="53">
         <v>1</v>
       </c>
-      <c r="K44" s="54" t="s">
+      <c r="M44" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L44" s="90" t="s">
+      <c r="N44" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M44" s="91"/>
-    </row>
-    <row r="45" spans="1:13" ht="13">
+      <c r="O44" s="91"/>
+    </row>
+    <row r="45" spans="1:15" ht="13.15">
       <c r="A45" s="50" t="s">
         <v>199</v>
       </c>
@@ -3716,18 +3962,24 @@
       <c r="I45" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J45" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="50">
+        <v>2</v>
+      </c>
+      <c r="L45" s="53">
         <v>1</v>
       </c>
-      <c r="K45" s="54" t="s">
+      <c r="M45" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="90" t="s">
+      <c r="N45" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M45" s="91"/>
-    </row>
-    <row r="46" spans="1:13" ht="13">
+      <c r="O45" s="91"/>
+    </row>
+    <row r="46" spans="1:15" ht="13.15">
       <c r="A46" s="50" t="s">
         <v>204</v>
       </c>
@@ -3753,18 +4005,24 @@
       <c r="I46" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" s="50">
+        <v>5</v>
+      </c>
+      <c r="L46" s="53">
         <v>1</v>
       </c>
-      <c r="K46" s="54" t="s">
+      <c r="M46" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L46" s="90" t="s">
+      <c r="N46" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M46" s="91"/>
-    </row>
-    <row r="47" spans="1:13" ht="13">
+      <c r="O46" s="91"/>
+    </row>
+    <row r="47" spans="1:15" ht="13.15">
       <c r="A47" s="50" t="s">
         <v>209</v>
       </c>
@@ -3790,18 +4048,24 @@
       <c r="I47" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J47" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" s="50">
+        <v>8</v>
+      </c>
+      <c r="L47" s="53">
         <v>1</v>
       </c>
-      <c r="K47" s="54" t="s">
+      <c r="M47" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L47" s="90" t="s">
+      <c r="N47" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="91"/>
-    </row>
-    <row r="48" spans="1:13" ht="13">
+      <c r="O47" s="91"/>
+    </row>
+    <row r="48" spans="1:15" ht="13.15">
       <c r="A48" s="50" t="s">
         <v>214</v>
       </c>
@@ -3827,18 +4091,24 @@
       <c r="I48" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="50">
+        <v>2</v>
+      </c>
+      <c r="L48" s="53">
         <v>1</v>
       </c>
-      <c r="K48" s="54" t="s">
+      <c r="M48" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L48" s="90" t="s">
+      <c r="N48" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M48" s="91"/>
-    </row>
-    <row r="49" spans="1:13" ht="13">
+      <c r="O48" s="91"/>
+    </row>
+    <row r="49" spans="1:15" ht="13.15">
       <c r="A49" s="50" t="s">
         <v>219</v>
       </c>
@@ -3864,18 +4134,24 @@
       <c r="I49" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" s="50">
+        <v>4</v>
+      </c>
+      <c r="L49" s="53">
         <v>1</v>
       </c>
-      <c r="K49" s="54" t="s">
+      <c r="M49" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L49" s="90" t="s">
+      <c r="N49" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M49" s="91"/>
-    </row>
-    <row r="50" spans="1:13" ht="13">
+      <c r="O49" s="91"/>
+    </row>
+    <row r="50" spans="1:15" ht="13.15">
       <c r="A50" s="50" t="s">
         <v>223</v>
       </c>
@@ -3903,18 +4179,24 @@
       <c r="I50" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K50" s="50">
+        <v>44</v>
+      </c>
+      <c r="L50" s="53">
         <v>1</v>
       </c>
-      <c r="K50" s="54" t="s">
+      <c r="M50" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L50" s="90" t="s">
+      <c r="N50" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M50" s="91"/>
-    </row>
-    <row r="51" spans="1:13" ht="14">
+      <c r="O50" s="91"/>
+    </row>
+    <row r="51" spans="1:15" ht="13.5">
       <c r="A51" s="56" t="s">
         <v>228</v>
       </c>
@@ -3942,20 +4224,26 @@
       <c r="I51" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="J51" s="60">
+      <c r="J51" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="57">
+        <v>5</v>
+      </c>
+      <c r="L51" s="60">
         <v>1</v>
       </c>
-      <c r="K51" s="61" t="s">
+      <c r="M51" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="L51" s="92" t="s">
+      <c r="N51" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="M51" s="111" t="s">
+      <c r="O51" s="111" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="13">
+    <row r="52" spans="1:15" ht="13.15">
       <c r="A52" s="50" t="s">
         <v>233</v>
       </c>
@@ -3983,20 +4271,26 @@
       <c r="I52" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" s="50">
+        <v>3</v>
+      </c>
+      <c r="L52" s="53">
         <v>1</v>
       </c>
-      <c r="K52" s="54" t="s">
+      <c r="M52" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L52" s="90" t="s">
+      <c r="N52" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M52" s="132" t="s">
+      <c r="O52" s="132" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="13">
+    <row r="53" spans="1:15" ht="13.15">
       <c r="A53" s="50" t="s">
         <v>238</v>
       </c>
@@ -4024,18 +4318,24 @@
       <c r="I53" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" s="50">
+        <v>3</v>
+      </c>
+      <c r="L53" s="53">
         <v>1</v>
       </c>
-      <c r="K53" s="54" t="s">
+      <c r="M53" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L53" s="90" t="s">
+      <c r="N53" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M53" s="91"/>
-    </row>
-    <row r="54" spans="1:13" ht="13">
+      <c r="O53" s="91"/>
+    </row>
+    <row r="54" spans="1:15" ht="13.15">
       <c r="A54" s="67" t="s">
         <v>241</v>
       </c>
@@ -4063,20 +4363,26 @@
       <c r="I54" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="J54" s="71">
+      <c r="J54" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" s="68">
+        <v>4</v>
+      </c>
+      <c r="L54" s="71">
         <v>1</v>
       </c>
-      <c r="K54" s="72" t="s">
+      <c r="M54" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="L54" s="93" t="s">
+      <c r="N54" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="109" t="s">
+      <c r="O54" s="109" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="13">
+    <row r="55" spans="1:15" ht="13.15">
       <c r="A55" s="50" t="s">
         <v>246</v>
       </c>
@@ -4104,18 +4410,24 @@
       <c r="I55" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="J55" s="53">
+      <c r="J55" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K55" s="50">
+        <v>6</v>
+      </c>
+      <c r="L55" s="53">
         <v>1</v>
       </c>
-      <c r="K55" s="54" t="s">
+      <c r="M55" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L55" s="90" t="s">
+      <c r="N55" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M55" s="91"/>
-    </row>
-    <row r="56" spans="1:13" ht="13">
+      <c r="O55" s="91"/>
+    </row>
+    <row r="56" spans="1:15" ht="13.15">
       <c r="A56" s="50" t="s">
         <v>251</v>
       </c>
@@ -4143,18 +4455,24 @@
       <c r="I56" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K56" s="50">
+        <v>5</v>
+      </c>
+      <c r="L56" s="53">
         <v>1</v>
       </c>
-      <c r="K56" s="54" t="s">
+      <c r="M56" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L56" s="90" t="s">
+      <c r="N56" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="M56" s="91"/>
-    </row>
-    <row r="57" spans="1:13" ht="13">
+      <c r="O56" s="91"/>
+    </row>
+    <row r="57" spans="1:15" ht="13.15">
       <c r="A57" s="50" t="s">
         <v>256</v>
       </c>
@@ -4182,18 +4500,24 @@
       <c r="I57" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" s="50">
+        <v>8</v>
+      </c>
+      <c r="L57" s="53">
         <v>1</v>
       </c>
-      <c r="K57" s="54" t="s">
+      <c r="M57" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="L57" s="90" t="s">
+      <c r="N57" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M57" s="91"/>
-    </row>
-    <row r="58" spans="1:13" ht="13">
+      <c r="O57" s="91"/>
+    </row>
+    <row r="58" spans="1:15" ht="13.15">
       <c r="A58" s="113" t="s">
         <v>261</v>
       </c>
@@ -4221,18 +4545,24 @@
       <c r="I58" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="J58" s="116">
+      <c r="J58" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="113">
+        <v>4</v>
+      </c>
+      <c r="L58" s="116">
         <v>1</v>
       </c>
-      <c r="K58" s="117">
+      <c r="M58" s="117">
         <v>5</v>
       </c>
-      <c r="L58" s="118" t="s">
+      <c r="N58" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="M58" s="119"/>
-    </row>
-    <row r="59" spans="1:13" s="129" customFormat="1" ht="13">
+      <c r="O58" s="119"/>
+    </row>
+    <row r="59" spans="1:15" s="129" customFormat="1" ht="13.15">
       <c r="A59" s="112" t="s">
         <v>293</v>
       </c>
@@ -4260,14 +4590,20 @@
       <c r="I59" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" s="50">
+        <v>2</v>
+      </c>
+      <c r="L59" s="53">
         <v>1</v>
       </c>
-      <c r="K59" s="127"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="128"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="M59" s="127"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="128"/>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="12"/>
       <c r="B60" s="120"/>
       <c r="C60" s="121"/>
@@ -4277,12 +4613,14 @@
       <c r="G60" s="122"/>
       <c r="H60" s="122"/>
       <c r="I60" s="123"/>
-      <c r="J60" s="124">
-        <f>SUM(J12:J59)</f>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="124">
+        <f>SUM(L12:L59)</f>
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13">
+    <row r="61" spans="1:15" ht="13.15">
       <c r="A61" s="12"/>
       <c r="B61" s="73" t="s">
         <v>267</v>
@@ -4296,9 +4634,11 @@
       <c r="G61" s="74"/>
       <c r="H61" s="133"/>
       <c r="I61" s="76"/>
-      <c r="J61" s="77"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="77"/>
+    </row>
+    <row r="62" spans="1:15">
       <c r="B62" s="78"/>
       <c r="C62" s="79"/>
       <c r="D62" s="80"/>
@@ -4307,9 +4647,11 @@
       <c r="G62" s="130"/>
       <c r="H62" s="130"/>
       <c r="I62" s="81"/>
-      <c r="J62" s="82"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="82"/>
+    </row>
+    <row r="63" spans="1:15">
       <c r="B63" s="83"/>
       <c r="C63" s="84"/>
       <c r="D63" s="85"/>
@@ -4318,9 +4660,11 @@
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="86"/>
-      <c r="J63" s="77"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="J63" s="135"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="77"/>
+    </row>
+    <row r="64" spans="1:15">
       <c r="B64" s="83"/>
       <c r="C64" s="84"/>
       <c r="D64" s="85"/>
@@ -4329,9 +4673,11 @@
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="86"/>
-      <c r="J64" s="77"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="J64" s="135"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="77"/>
+    </row>
+    <row r="65" spans="2:12">
       <c r="B65" s="83"/>
       <c r="C65" s="84"/>
       <c r="D65" s="85"/>
@@ -4340,9 +4686,11 @@
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="86"/>
-      <c r="J65" s="77"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="77"/>
+    </row>
+    <row r="66" spans="2:12">
       <c r="B66" s="94"/>
       <c r="C66" s="95"/>
       <c r="D66" s="96"/>
@@ -4351,9 +4699,11 @@
       <c r="G66" s="99"/>
       <c r="H66" s="99"/>
       <c r="I66" s="97"/>
-      <c r="J66" s="98"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="J66" s="100"/>
+      <c r="K66" s="100"/>
+      <c r="L66" s="98"/>
+    </row>
+    <row r="67" spans="2:12">
       <c r="B67" s="94"/>
       <c r="C67" s="99"/>
       <c r="D67" s="99"/>
@@ -4362,9 +4712,11 @@
       <c r="G67" s="99"/>
       <c r="H67" s="99"/>
       <c r="I67" s="100"/>
-      <c r="J67" s="98"/>
-    </row>
-    <row r="68" spans="2:10" ht="13">
+      <c r="J67" s="100"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="98"/>
+    </row>
+    <row r="68" spans="2:12">
       <c r="B68" s="101"/>
       <c r="C68" s="102"/>
       <c r="D68" s="102"/>
@@ -4373,9 +4725,11 @@
       <c r="G68" s="102"/>
       <c r="H68" s="102"/>
       <c r="I68" s="103"/>
-      <c r="J68" s="104"/>
-    </row>
-    <row r="69" spans="2:10" ht="13">
+      <c r="J68" s="103"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="104"/>
+    </row>
+    <row r="69" spans="2:12">
       <c r="B69" s="105"/>
       <c r="C69" s="106"/>
       <c r="D69" s="106"/>
@@ -4384,7 +4738,9 @@
       <c r="G69" s="106"/>
       <c r="H69" s="106"/>
       <c r="I69" s="107"/>
-      <c r="J69" s="108"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="107"/>
+      <c r="L69" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.45999999999999996" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
@@ -4403,10 +4759,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="108.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="108.53125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="17.25" customHeight="1">
